--- a/datos_inmobiliarios.xlsx
+++ b/datos_inmobiliarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
   <si>
     <t>Precios</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Baños</t>
   </si>
   <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
     <t>$ 1,250,000</t>
   </si>
   <si>
@@ -73,19 +76,19 @@
     <t>$ 112,000</t>
   </si>
   <si>
-    <t>$ 52,447.55
+    <t>$ 52,844.04
                     destacado</t>
   </si>
   <si>
-    <t>$ 44,378.7
+    <t>$ 44,714.19
                     destacado</t>
   </si>
   <si>
-    <t>$ 51,102.74
+    <t>$ 340,000</t>
+  </si>
+  <si>
+    <t>$ 51,489.06
                     destacado</t>
-  </si>
-  <si>
-    <t>$ 340,000</t>
   </si>
   <si>
     <t>(Precio a consultar)
@@ -96,6 +99,9 @@
                     destacado</t>
   </si>
   <si>
+    <t>$ 825,000</t>
+  </si>
+  <si>
     <t>$ 560,000
                     destacado</t>
   </si>
@@ -116,10 +122,6 @@
                     destacado</t>
   </si>
   <si>
-    <t>$ 1,353,450
-                    destacado</t>
-  </si>
-  <si>
     <t>Casa en  La Planicie, La Molina, Perú</t>
   </si>
   <si>
@@ -156,12 +158,12 @@
     <t>Casa en  Alameda De San Juan, Carabayllo, Perú</t>
   </si>
   <si>
+    <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
+  </si>
+  <si>
     <t>Casa en  San Pedro, Carabayllo, Perú</t>
   </si>
   <si>
-    <t>Casa en  Avenida Metropolitana &amp; Avenida Prolongación Javier Prado Este, Ate, Perú</t>
-  </si>
-  <si>
     <t>Casa en  Playa Las Totoritas, Cañete, Lima, Perú</t>
   </si>
   <si>
@@ -171,6 +173,9 @@
     <t>Casa en  Jirón Aragón 178, Pueblo Libre, Perú</t>
   </si>
   <si>
+    <t>Casa en  Sevilla 115, Miraflores, Perú</t>
+  </si>
+  <si>
     <t>Casa en  Carlos Monge Medrano, Santiago De Surco, Perú</t>
   </si>
   <si>
@@ -186,9 +191,6 @@
     <t>Casa en  Alberto Bartón, Santa Catalina, Lima, Perú</t>
   </si>
   <si>
-    <t>Casa en  Jirón Paseo De Los Eucaliptos 460, La Molina, Perú</t>
-  </si>
-  <si>
     <t>1,790m2</t>
   </si>
   <si>
@@ -234,12 +236,12 @@
     <t>56.14m2</t>
   </si>
   <si>
+    <t>156m2</t>
+  </si>
+  <si>
     <t>90m2</t>
   </si>
   <si>
-    <t>156m2</t>
-  </si>
-  <si>
     <t>250m2</t>
   </si>
   <si>
@@ -249,6 +251,9 @@
     <t>223m2</t>
   </si>
   <si>
+    <t>267m2</t>
+  </si>
+  <si>
     <t>280m2</t>
   </si>
   <si>
@@ -264,9 +269,6 @@
     <t>160m2</t>
   </si>
   <si>
-    <t>1,289m2</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -289,6 +291,119 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Elegante y amplia residencia moderna, 13 años de construcción y sólo 7 de uso, como nueva. 
+Excelente iluminación natural...</t>
+  </si>
+  <si>
+    <t>SURQUILLO, LA CALERA DE LA MERCED
+VENTA DE CASA,  Bien ubicada, zona Urbana, céntrica y accesible.
+Características importantes...</t>
+  </si>
+  <si>
+    <t>CASA DE PLAYA en CONDOMINIO PLAYA PUNTA CORRIENTES
+Playa PUNTA CORRIENTES km. 122.300 autopista Panamericana Sur
+Calle Las...</t>
+  </si>
+  <si>
+    <t>En la zona más tranquila de La Planicie, primera  etapa, cerca del colegio Villa María. Zona exclusiva enrejada, La Laguna...</t>
+  </si>
+  <si>
+    <t>Se vende casa en punta corrientes.
+Muy buena ubicación con vista hacia la playa</t>
+  </si>
+  <si>
+    <t>Amplia residencia en Rinconada Alta. 4 dormitorios y 7 baños. Dormitorio principal con salida a terraza y vista a los jardines...</t>
+  </si>
+  <si>
+    <t>Hermosa casa casi nueva, impecable en Las Lagunas. 4 dormitorios con aire acondicionado. Dormitorio principal con balcón,...</t>
+  </si>
+  <si>
+    <t>Como terreno. Hermosa residencia en excelente ubicación de la 1a etapa de La Planicie. A precio de terreno. 5 dormitorios...</t>
+  </si>
+  <si>
+    <t>Amplia residencia en Rinconada Alta. 4 dormitorios y 7 baños. Dormitorio principal con salida a terraza.  Amplia sala comedor...</t>
+  </si>
+  <si>
+    <t>Bella residencia en La Planicie, primera etapa. Impecable, como nueva. En total 5 dormitorios con aire acondicionado. 2 dormitorios...</t>
+  </si>
+  <si>
+    <t>Hermosa residencia en Residencial Monterrico (por Camacho). 700m2 techados. 3 dormitorios en el primer piso, uno con baño...</t>
+  </si>
+  <si>
+    <t>Hermosa residencia en Rinconada Alta. 5 amplios dormitorios con baño incorporado. Hall de ingreso, sala, comedor, comedor...</t>
+  </si>
+  <si>
+    <t>¡MÚDATE A PUEBLO LIBRE!
+En venta amplia y cómoda vivienda de 3 pisos en Pueblo Libre, con fácil acceso a avenidas principales...</t>
+  </si>
+  <si>
+    <t>Vendo linda casa en esquina de 429.54m2 de terreno, en calle Andreas Vesalio, San Borja, muy bien ubicada.
+La casa tiene ...</t>
+  </si>
+  <si>
+    <t>VENDO CASA EN LA UNIDAD VECINAL DEL RIMAC, UBICADA FRENTE A PLAZA VEA DE LA AV. ALCAZAR, MUY CENTRICA. 
+LA CASA TIENE 3 PISOS...</t>
+  </si>
+  <si>
+    <t>HERMOSA CASA EN VENTA, área de terreno de 76.25 m² con excelente distribución e iluminación, seguridad las 24 horas del día...</t>
+  </si>
+  <si>
+    <t>Hermosa Casa en Venta
+CASA DE DOS PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 28.07m² construido aproximadamente...</t>
+  </si>
+  <si>
+    <t>Venta de Casa. ZONA CERRADA SEGURA VIGILANCIA PRIVADA FRENTE A PARQUE
+Casa de 4 pisos ubicada en Calle Las Limas URB. CERES...</t>
+  </si>
+  <si>
+    <t>CASA DE TRES PISOS, EN VENTA UBICADO EN EL EXTERIOR DE UN CONDOMINIO 90m² construido aproximadamente, con excelente distribución...</t>
+  </si>
+  <si>
+    <t>Se vende casa de playa en La Macarena - Totoritas
+la casa consta de dos pisos bien distribuidos.
+Primer piso:
+Linda entrada...</t>
+  </si>
+  <si>
+    <t>Se Vende Casa en Playa Las Totoritas
+La casa se encuentra unicada  en la Calle 4 a media cuadra del malecón.
+Consta de dos...</t>
+  </si>
+  <si>
+    <t>En venta casa de tres pisos con un área de terreno de 223 m2 con una privilegiada ubicación, perfecta oportunidad para constructoras...</t>
+  </si>
+  <si>
+    <t>Vendo casa de dos pisos en excelente ubicación en el distrito de Miraflores, cerca a avenidas, centros comerciales, colegios...</t>
+  </si>
+  <si>
+    <t>A.T. : 280 m2, A.C. : 280 m2.
+2 pisos.
+Aire acondicionado, tres plantas, 45 años de antigüedad, vista a parque, en muy buen...</t>
+  </si>
+  <si>
+    <t>VENTA CASA SAN BORJA
+Ubicadísima, acogedora, segura e iluminada !!  - Fácil acceso a transporte.
+Venta de casa de 2 Pisos...</t>
+  </si>
+  <si>
+    <t>UBICADISIMA CASA EN EL CORAZON DE LA ESTANCIA LA MOLINA !!
+Seguridad 24 horas. Cámaras en todas la urbanizacion.  Garitas...</t>
+  </si>
+  <si>
+    <t>PRECIOSA CASA MINIMALISTA. CONDOMINIO PORTADA DEL HARAS, FINOS ACABADOS, TECHOS ALTOS EXCELENTE DISTRIBUCIÓN. FULL SEGURIDAD...</t>
+  </si>
+  <si>
+    <t>INDA CASA EN CONDOMINIO El Sol de La Molina 340m2 con excelente ubicación, dos plantas. 
+Primer Piso: Sala y comedor con ...</t>
+  </si>
+  <si>
+    <t>Calle ALBERTO BARTÓN, Urb. SANTA CATALINA
+Zonificación Comercial
+A.O. : 160 m2, A.C. : 160 m2.
+Piso 1.
+Zonificación comercial...</t>
   </si>
 </sst>
 </file>
@@ -646,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,515 +783,608 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
+      <c r="F31" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
